--- a/write/tables/tb_model_early4_all_sims100.xlsx
+++ b/write/tables/tb_model_early4_all_sims100.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-15140" windowWidth="21000" windowHeight="17460" activeTab="1"/>
+    <workbookView xWindow="28800" yWindow="-15140" windowWidth="12200" windowHeight="13080" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="11" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="results" sheetId="7" r:id="rId6"/>
     <sheet name="boot" sheetId="8" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -1063,9 +1063,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1091,12 +1088,6 @@
     <xf numFmtId="2" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1106,9 +1097,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1126,6 +1114,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1432,7 +1432,7 @@
   <dimension ref="A1:J36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1536,11 +1536,11 @@
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="3"/>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="27" t="s">
         <v>271</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5" t="s">
+      <c r="E5" s="27"/>
+      <c r="F5" s="4" t="s">
         <v>272</v>
       </c>
       <c r="G5" s="1"/>
@@ -1551,11 +1551,11 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>273</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="7"/>
+      <c r="E6" s="6"/>
       <c r="F6" s="2"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -1568,7 +1568,7 @@
         <f>results!A3</f>
         <v>out_of_hours</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="7" t="s">
         <v>274</v>
       </c>
       <c r="D7" s="2" t="str">
@@ -1603,18 +1603,18 @@
         <f>results!A4</f>
         <v>weekend</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="11" t="s">
         <v>275</v>
       </c>
-      <c r="D8" s="10" t="str">
+      <c r="D8" s="9" t="str">
         <f>results!B4</f>
         <v>1.06</v>
       </c>
-      <c r="E8" s="11" t="str">
+      <c r="E8" s="10" t="str">
         <f>results!C4</f>
         <v>(0.91--1.23)</v>
       </c>
-      <c r="F8" s="10" t="str">
+      <c r="F8" s="9" t="str">
         <f>results!D4</f>
         <v>0.467</v>
       </c>
@@ -1638,7 +1638,7 @@
         <f>results!A5</f>
         <v>winter</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="7" t="s">
         <v>276</v>
       </c>
       <c r="D9" s="2" t="str">
@@ -1670,12 +1670,12 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="1"/>
-      <c r="C10" s="9" t="s">
+      <c r="C10" s="8" t="s">
         <v>277</v>
       </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="10"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="9"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1684,14 +1684,14 @@
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>278</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="28" t="s">
         <v>298</v>
       </c>
-      <c r="E11" s="17"/>
-      <c r="F11" s="17"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1703,18 +1703,18 @@
         <f>results!A6</f>
         <v>room_cmp2[-5, 1)</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>279</v>
       </c>
-      <c r="D12" s="10" t="str">
+      <c r="D12" s="9" t="str">
         <f>results!B7</f>
         <v>0.58</v>
       </c>
-      <c r="E12" s="10" t="str">
+      <c r="E12" s="9" t="str">
         <f>results!C7</f>
         <v>(0.49--0.70)</v>
       </c>
-      <c r="F12" s="10" t="str">
+      <c r="F12" s="9" t="str">
         <f>results!D7</f>
         <v>&lt;0.001</v>
       </c>
@@ -1738,18 +1738,18 @@
         <f>results!A7</f>
         <v>room_cmp2[ 1, 3)</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="11" t="s">
         <v>280</v>
       </c>
-      <c r="D13" s="10" t="str">
+      <c r="D13" s="9" t="str">
         <f>results!B6</f>
         <v>0.27</v>
       </c>
-      <c r="E13" s="10" t="str">
+      <c r="E13" s="9" t="str">
         <f>results!C6</f>
         <v>(0.19--0.37)</v>
       </c>
-      <c r="F13" s="10" t="str">
+      <c r="F13" s="9" t="str">
         <f>results!D6</f>
         <v>&lt;0.001</v>
       </c>
@@ -1770,7 +1770,7 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="12" t="s">
         <v>281</v>
       </c>
       <c r="D14" s="2"/>
@@ -1784,14 +1784,14 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-      <c r="C15" s="8" t="s">
+      <c r="C15" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="29" t="s">
         <v>298</v>
       </c>
-      <c r="E15" s="18"/>
-      <c r="F15" s="18"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -1803,7 +1803,7 @@
         <f>results!A8</f>
         <v>age_k0</v>
       </c>
-      <c r="C16" s="8" t="s">
+      <c r="C16" s="7" t="s">
         <v>283</v>
       </c>
       <c r="D16" s="2" t="str">
@@ -1838,7 +1838,7 @@
         <f>results!A9</f>
         <v>age_k2</v>
       </c>
-      <c r="C17" s="8" t="s">
+      <c r="C17" s="7" t="s">
         <v>284</v>
       </c>
       <c r="D17" s="2" t="str">
@@ -1873,7 +1873,7 @@
         <f>results!A10</f>
         <v>age_k3</v>
       </c>
-      <c r="C18" s="8" t="s">
+      <c r="C18" s="7" t="s">
         <v>285</v>
       </c>
       <c r="D18" s="2" t="str">
@@ -1908,18 +1908,18 @@
         <f>results!A11</f>
         <v>male</v>
       </c>
-      <c r="C19" s="14" t="s">
+      <c r="C19" s="13" t="s">
         <v>286</v>
       </c>
-      <c r="D19" s="10" t="str">
+      <c r="D19" s="9" t="str">
         <f>results!B11</f>
         <v>1.14</v>
       </c>
-      <c r="E19" s="11" t="str">
+      <c r="E19" s="10" t="str">
         <f>results!C11</f>
         <v>(1.00--1.30)</v>
       </c>
-      <c r="F19" s="10" t="str">
+      <c r="F19" s="9" t="str">
         <f>results!D11</f>
         <v>0.057</v>
       </c>
@@ -1940,12 +1940,12 @@
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-      <c r="C20" s="19" t="s">
+      <c r="C20" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="20"/>
+      <c r="D20" s="17"/>
+      <c r="E20" s="18"/>
+      <c r="F20" s="17"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1954,14 +1954,14 @@
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-      <c r="C21" s="22" t="s">
+      <c r="C21" s="19" t="s">
         <v>288</v>
       </c>
-      <c r="D21" s="23" t="s">
+      <c r="D21" s="30" t="s">
         <v>298</v>
       </c>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -1973,18 +1973,18 @@
         <f>results!A12</f>
         <v>sepsis_dx1</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="19" t="s">
         <v>289</v>
       </c>
-      <c r="D22" s="20" t="str">
+      <c r="D22" s="17" t="str">
         <f>results!B12</f>
         <v>0.89</v>
       </c>
-      <c r="E22" s="21" t="str">
+      <c r="E22" s="18" t="str">
         <f>results!C12</f>
         <v>(0.72--1.11)</v>
       </c>
-      <c r="F22" s="20" t="str">
+      <c r="F22" s="17" t="str">
         <f>results!D12</f>
         <v>0.322</v>
       </c>
@@ -2008,18 +2008,18 @@
         <f>results!A13</f>
         <v>sepsis_dx2</v>
       </c>
-      <c r="C23" s="22" t="s">
+      <c r="C23" s="19" t="s">
         <v>290</v>
       </c>
-      <c r="D23" s="20" t="str">
+      <c r="D23" s="17" t="str">
         <f>results!B13</f>
         <v>1.08</v>
       </c>
-      <c r="E23" s="21" t="str">
+      <c r="E23" s="18" t="str">
         <f>results!C13</f>
         <v>(0.82--1.43)</v>
       </c>
-      <c r="F23" s="20" t="str">
+      <c r="F23" s="17" t="str">
         <f>results!D13</f>
         <v>0.595</v>
       </c>
@@ -2043,18 +2043,18 @@
         <f>results!A14</f>
         <v>sepsis_dx3</v>
       </c>
-      <c r="C24" s="22" t="s">
+      <c r="C24" s="19" t="s">
         <v>291</v>
       </c>
-      <c r="D24" s="20" t="str">
+      <c r="D24" s="17" t="str">
         <f>results!B14</f>
         <v>0.83</v>
       </c>
-      <c r="E24" s="21" t="str">
+      <c r="E24" s="18" t="str">
         <f>results!C14</f>
         <v>(0.65--1.05)</v>
       </c>
-      <c r="F24" s="20" t="str">
+      <c r="F24" s="17" t="str">
         <f>results!D14</f>
         <v>0.124</v>
       </c>
@@ -2078,18 +2078,18 @@
         <f>results!A15</f>
         <v>sepsis_dx4</v>
       </c>
-      <c r="C25" s="22" t="s">
+      <c r="C25" s="19" t="s">
         <v>292</v>
       </c>
-      <c r="D25" s="20" t="str">
+      <c r="D25" s="17" t="str">
         <f>results!B15</f>
         <v>1.13</v>
       </c>
-      <c r="E25" s="21" t="str">
+      <c r="E25" s="18" t="str">
         <f>results!C15</f>
         <v>(0.96--1.34)</v>
       </c>
-      <c r="F25" s="20" t="str">
+      <c r="F25" s="17" t="str">
         <f>results!D15</f>
         <v>0.133</v>
       </c>
@@ -2113,18 +2113,18 @@
         <f>results!A16</f>
         <v>osupp2</v>
       </c>
-      <c r="C26" s="14" t="s">
+      <c r="C26" s="13" t="s">
         <v>293</v>
       </c>
-      <c r="D26" s="10" t="str">
+      <c r="D26" s="9" t="str">
         <f>results!B16</f>
         <v>1.32</v>
       </c>
-      <c r="E26" s="11" t="str">
+      <c r="E26" s="10" t="str">
         <f>results!C16</f>
         <v>(1.05--1.67)</v>
       </c>
-      <c r="F26" s="10" t="str">
+      <c r="F26" s="9" t="str">
         <f>results!D16</f>
         <v>0.019</v>
       </c>
@@ -2148,7 +2148,7 @@
         <f>results!A17</f>
         <v>icnarc_score</v>
       </c>
-      <c r="C27" s="13" t="s">
+      <c r="C27" s="12" t="s">
         <v>294</v>
       </c>
       <c r="D27" s="2" t="str">
@@ -2183,18 +2183,18 @@
         <f>results!A18</f>
         <v>periarrest</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="20" t="s">
         <v>295</v>
       </c>
-      <c r="D28" s="25" t="str">
+      <c r="D28" s="21" t="str">
         <f>results!B18</f>
         <v>1.98</v>
       </c>
-      <c r="E28" s="26" t="str">
+      <c r="E28" s="22" t="str">
         <f>results!C18</f>
         <v>(1.55--2.54)</v>
       </c>
-      <c r="F28" s="25" t="str">
+      <c r="F28" s="21" t="str">
         <f>results!D18</f>
         <v>&lt;0.001</v>
       </c>
@@ -2218,18 +2218,18 @@
         <f>results!A19</f>
         <v>icu_accept</v>
       </c>
-      <c r="C29" s="27" t="s">
+      <c r="C29" s="23" t="s">
         <v>299</v>
       </c>
-      <c r="D29" s="28" t="str">
+      <c r="D29" s="24" t="str">
         <f>results!B19</f>
         <v>69.07</v>
       </c>
-      <c r="E29" s="29" t="str">
+      <c r="E29" s="25" t="str">
         <f>results!C19</f>
         <v>(58.75--81.21)</v>
       </c>
-      <c r="F29" s="28" t="str">
+      <c r="F29" s="24" t="str">
         <f>results!D19</f>
         <v>&lt;0.001</v>
       </c>
@@ -2250,10 +2250,10 @@
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" s="1"/>
       <c r="B30" s="1"/>
-      <c r="C30" s="27"/>
-      <c r="D30" s="28"/>
-      <c r="E30" s="29"/>
-      <c r="F30" s="28"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="24"/>
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
       <c r="I30" s="1"/>
@@ -2262,12 +2262,12 @@
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" s="1"/>
       <c r="B31" s="1"/>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="10" t="s">
         <v>296</v>
       </c>
-      <c r="D31" s="10"/>
-      <c r="E31" s="11"/>
-      <c r="F31" s="10"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="9"/>
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
       <c r="I31" s="1"/>
@@ -2276,18 +2276,18 @@
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="14" t="s">
         <v>297</v>
       </c>
-      <c r="D32" s="16">
+      <c r="D32" s="15">
         <f>VALUE(boot!B2)</f>
         <v>1.88944150851315</v>
       </c>
-      <c r="E32" s="15" t="str">
+      <c r="E32" s="14" t="str">
         <f>CONCATENATE("(",ROUND(VALUE(boot!C2),2),"--",ROUND(VALUE(boot!D2),2),")")</f>
         <v>(1.63--2.21)</v>
       </c>
-      <c r="F32" s="15"/>
+      <c r="F32" s="14"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -2365,7 +2365,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="135" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="26" t="s">
         <v>300</v>
       </c>
     </row>

--- a/write/tables/tb_model_early4_all_sims100.xlsx
+++ b/write/tables/tb_model_early4_all_sims100.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="28800" yWindow="-15140" windowWidth="12200" windowHeight="13080" activeTab="1"/>
+    <workbookView xWindow="16800" yWindow="460" windowWidth="16800" windowHeight="20460" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="11" r:id="rId1"/>
@@ -1027,7 +1027,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="14">
+  <cellStyleXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0">
       <alignment wrapText="1"/>
@@ -1052,8 +1052,10 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1127,16 +1129,22 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="14">
+  <cellStyles count="16">
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="9" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="8" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="XLConnect.Boolean" xfId="4"/>
     <cellStyle name="XLConnect.DateTime" xfId="5"/>
@@ -1429,10 +1437,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="L28" sqref="L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1551,11 +1559,11 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="5" t="s">
-        <v>273</v>
+      <c r="C6" s="12" t="s">
+        <v>281</v>
       </c>
       <c r="D6" s="2"/>
-      <c r="E6" s="6"/>
+      <c r="E6" s="1"/>
       <c r="F6" s="2"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -1564,730 +1572,720 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="1" t="str">
-        <f>results!A3</f>
-        <v>out_of_hours</v>
-      </c>
+      <c r="B7" s="1"/>
       <c r="C7" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="D7" s="2" t="str">
-        <f>results!B3</f>
-        <v>1.79</v>
-      </c>
-      <c r="E7" s="1" t="str">
-        <f>results!C3</f>
-        <v>(1.56--2.07)</v>
-      </c>
-      <c r="F7" s="2" t="str">
-        <f>results!D3</f>
-        <v>&lt;0.001</v>
-      </c>
-      <c r="G7" s="1" t="str">
-        <f>results!E3</f>
-        <v>***</v>
-      </c>
-      <c r="H7" s="1" t="str">
-        <f>results!F3</f>
-        <v>1.56</v>
-      </c>
-      <c r="I7" s="1" t="str">
-        <f>results!G3</f>
-        <v>2.07</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
       <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="1" t="str">
-        <f>results!A4</f>
-        <v>weekend</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>275</v>
-      </c>
-      <c r="D8" s="9" t="str">
-        <f>results!B4</f>
-        <v>1.06</v>
-      </c>
-      <c r="E8" s="10" t="str">
-        <f>results!C4</f>
-        <v>(0.91--1.23)</v>
-      </c>
-      <c r="F8" s="9" t="str">
-        <f>results!D4</f>
-        <v>0.467</v>
+        <f>results!A8</f>
+        <v>age_k0</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="D8" s="2" t="str">
+        <f>results!B8</f>
+        <v>0.86</v>
+      </c>
+      <c r="E8" s="1" t="str">
+        <f>results!C8</f>
+        <v>(0.67--1.10)</v>
+      </c>
+      <c r="F8" s="2" t="str">
+        <f>results!D8</f>
+        <v>0.228</v>
       </c>
       <c r="G8" s="1" t="str">
-        <f>results!E4</f>
+        <f>results!E8</f>
         <v/>
       </c>
       <c r="H8" s="1" t="str">
-        <f>results!F4</f>
-        <v>0.91</v>
+        <f>results!F8</f>
+        <v>0.67</v>
       </c>
       <c r="I8" s="1" t="str">
-        <f>results!G4</f>
-        <v>1.23</v>
+        <f>results!G8</f>
+        <v>1.10</v>
       </c>
       <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="1" t="str">
-        <f>results!A5</f>
-        <v>winter</v>
+        <f>results!A9</f>
+        <v>age_k2</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="D9" s="2" t="str">
-        <f>results!B5</f>
-        <v>0.76</v>
+        <f>results!B9</f>
+        <v>0.80</v>
       </c>
       <c r="E9" s="1" t="str">
-        <f>results!C5</f>
-        <v>(0.64--0.90)</v>
+        <f>results!C9</f>
+        <v>(0.67--0.95)</v>
       </c>
       <c r="F9" s="2" t="str">
-        <f>results!D5</f>
-        <v>0.001</v>
+        <f>results!D9</f>
+        <v>0.011</v>
       </c>
       <c r="G9" s="1" t="str">
-        <f>results!E5</f>
-        <v>**</v>
+        <f>results!E9</f>
+        <v>*</v>
       </c>
       <c r="H9" s="1" t="str">
-        <f>results!F5</f>
-        <v>0.64</v>
+        <f>results!F9</f>
+        <v>0.67</v>
       </c>
       <c r="I9" s="1" t="str">
-        <f>results!G5</f>
-        <v>0.90</v>
+        <f>results!G9</f>
+        <v>0.95</v>
       </c>
       <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="D10" s="9"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
+      <c r="B10" s="1" t="str">
+        <f>results!A10</f>
+        <v>age_k3</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="D10" s="2" t="str">
+        <f>results!B10</f>
+        <v>0.62</v>
+      </c>
+      <c r="E10" s="1" t="str">
+        <f>results!C10</f>
+        <v>(0.50--0.76)</v>
+      </c>
+      <c r="F10" s="2" t="str">
+        <f>results!D10</f>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="G10" s="1" t="str">
+        <f>results!E10</f>
+        <v>***</v>
+      </c>
+      <c r="H10" s="1" t="str">
+        <f>results!F10</f>
+        <v>0.50</v>
+      </c>
+      <c r="I10" s="1" t="str">
+        <f>results!G10</f>
+        <v>0.76</v>
+      </c>
       <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="11" t="s">
-        <v>278</v>
-      </c>
-      <c r="D11" s="28" t="s">
-        <v>298</v>
-      </c>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
+      <c r="B11" s="1" t="str">
+        <f>results!A11</f>
+        <v>male</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="D11" s="9" t="str">
+        <f>results!B11</f>
+        <v>1.14</v>
+      </c>
+      <c r="E11" s="10" t="str">
+        <f>results!C11</f>
+        <v>(1.00--1.30)</v>
+      </c>
+      <c r="F11" s="9" t="str">
+        <f>results!D11</f>
+        <v>0.057</v>
+      </c>
+      <c r="G11" s="1" t="str">
+        <f>results!E11</f>
+        <v/>
+      </c>
+      <c r="H11" s="1" t="str">
+        <f>results!F11</f>
+        <v>1.00</v>
+      </c>
+      <c r="I11" s="1" t="str">
+        <f>results!G11</f>
+        <v>1.30</v>
+      </c>
       <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" s="1"/>
-      <c r="B12" s="1" t="str">
-        <f>results!A6</f>
-        <v>room_cmp2[-5, 1)</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>279</v>
-      </c>
-      <c r="D12" s="9" t="str">
-        <f>results!B7</f>
-        <v>0.58</v>
-      </c>
-      <c r="E12" s="9" t="str">
-        <f>results!C7</f>
-        <v>(0.49--0.70)</v>
-      </c>
-      <c r="F12" s="9" t="str">
-        <f>results!D7</f>
-        <v>&lt;0.001</v>
-      </c>
-      <c r="G12" s="1" t="str">
-        <f>results!E6</f>
-        <v>***</v>
-      </c>
-      <c r="H12" s="1" t="str">
-        <f>results!F6</f>
-        <v>0.19</v>
-      </c>
-      <c r="I12" s="1" t="str">
-        <f>results!G6</f>
-        <v>0.37</v>
-      </c>
+      <c r="B12" s="1"/>
+      <c r="C12" s="16" t="s">
+        <v>287</v>
+      </c>
+      <c r="D12" s="17"/>
+      <c r="E12" s="18"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
       <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" s="1"/>
-      <c r="B13" s="1" t="str">
-        <f>results!A7</f>
-        <v>room_cmp2[ 1, 3)</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>280</v>
-      </c>
-      <c r="D13" s="9" t="str">
-        <f>results!B6</f>
-        <v>0.27</v>
-      </c>
-      <c r="E13" s="9" t="str">
-        <f>results!C6</f>
-        <v>(0.19--0.37)</v>
-      </c>
-      <c r="F13" s="9" t="str">
-        <f>results!D6</f>
-        <v>&lt;0.001</v>
-      </c>
-      <c r="G13" s="1" t="str">
-        <f>results!E7</f>
-        <v>***</v>
-      </c>
-      <c r="H13" s="1" t="str">
-        <f>results!F7</f>
-        <v>0.49</v>
-      </c>
-      <c r="I13" s="1" t="str">
-        <f>results!G7</f>
-        <v>0.70</v>
-      </c>
+      <c r="B13" s="1"/>
+      <c r="C13" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>298</v>
+      </c>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
       <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="12" t="s">
-        <v>281</v>
-      </c>
-      <c r="D14" s="2"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="2"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
+      <c r="B14" s="1" t="str">
+        <f>results!A12</f>
+        <v>sepsis_dx1</v>
+      </c>
+      <c r="C14" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="D14" s="17" t="str">
+        <f>results!B12</f>
+        <v>0.89</v>
+      </c>
+      <c r="E14" s="18" t="str">
+        <f>results!C12</f>
+        <v>(0.72--1.11)</v>
+      </c>
+      <c r="F14" s="17" t="str">
+        <f>results!D12</f>
+        <v>0.322</v>
+      </c>
+      <c r="G14" s="1" t="str">
+        <f>results!E12</f>
+        <v/>
+      </c>
+      <c r="H14" s="1" t="str">
+        <f>results!F12</f>
+        <v>0.72</v>
+      </c>
+      <c r="I14" s="1" t="str">
+        <f>results!G12</f>
+        <v>1.11</v>
+      </c>
       <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>298</v>
-      </c>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
+      <c r="B15" s="1" t="str">
+        <f>results!A13</f>
+        <v>sepsis_dx2</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>290</v>
+      </c>
+      <c r="D15" s="17" t="str">
+        <f>results!B13</f>
+        <v>1.08</v>
+      </c>
+      <c r="E15" s="18" t="str">
+        <f>results!C13</f>
+        <v>(0.82--1.43)</v>
+      </c>
+      <c r="F15" s="17" t="str">
+        <f>results!D13</f>
+        <v>0.595</v>
+      </c>
+      <c r="G15" s="1" t="str">
+        <f>results!E13</f>
+        <v/>
+      </c>
+      <c r="H15" s="1" t="str">
+        <f>results!F13</f>
+        <v>0.82</v>
+      </c>
+      <c r="I15" s="1" t="str">
+        <f>results!G13</f>
+        <v>1.43</v>
+      </c>
       <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" s="1"/>
       <c r="B16" s="1" t="str">
-        <f>results!A8</f>
-        <v>age_k0</v>
-      </c>
-      <c r="C16" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="D16" s="2" t="str">
-        <f>results!B8</f>
-        <v>0.86</v>
-      </c>
-      <c r="E16" s="1" t="str">
-        <f>results!C8</f>
-        <v>(0.67--1.10)</v>
-      </c>
-      <c r="F16" s="2" t="str">
-        <f>results!D8</f>
-        <v>0.228</v>
+        <f>results!A14</f>
+        <v>sepsis_dx3</v>
+      </c>
+      <c r="C16" s="19" t="s">
+        <v>291</v>
+      </c>
+      <c r="D16" s="17" t="str">
+        <f>results!B14</f>
+        <v>0.83</v>
+      </c>
+      <c r="E16" s="18" t="str">
+        <f>results!C14</f>
+        <v>(0.65--1.05)</v>
+      </c>
+      <c r="F16" s="17" t="str">
+        <f>results!D14</f>
+        <v>0.124</v>
       </c>
       <c r="G16" s="1" t="str">
-        <f>results!E8</f>
+        <f>results!E14</f>
         <v/>
       </c>
       <c r="H16" s="1" t="str">
-        <f>results!F8</f>
-        <v>0.67</v>
+        <f>results!F14</f>
+        <v>0.65</v>
       </c>
       <c r="I16" s="1" t="str">
-        <f>results!G8</f>
-        <v>1.10</v>
+        <f>results!G14</f>
+        <v>1.05</v>
       </c>
       <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="1"/>
       <c r="B17" s="1" t="str">
-        <f>results!A9</f>
-        <v>age_k2</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="D17" s="2" t="str">
-        <f>results!B9</f>
-        <v>0.80</v>
-      </c>
-      <c r="E17" s="1" t="str">
-        <f>results!C9</f>
-        <v>(0.67--0.95)</v>
-      </c>
-      <c r="F17" s="2" t="str">
-        <f>results!D9</f>
-        <v>0.011</v>
+        <f>results!A15</f>
+        <v>sepsis_dx4</v>
+      </c>
+      <c r="C17" s="19" t="s">
+        <v>292</v>
+      </c>
+      <c r="D17" s="17" t="str">
+        <f>results!B15</f>
+        <v>1.13</v>
+      </c>
+      <c r="E17" s="18" t="str">
+        <f>results!C15</f>
+        <v>(0.96--1.34)</v>
+      </c>
+      <c r="F17" s="17" t="str">
+        <f>results!D15</f>
+        <v>0.133</v>
       </c>
       <c r="G17" s="1" t="str">
-        <f>results!E9</f>
-        <v>*</v>
+        <f>results!E15</f>
+        <v/>
       </c>
       <c r="H17" s="1" t="str">
-        <f>results!F9</f>
-        <v>0.67</v>
+        <f>results!F15</f>
+        <v>0.96</v>
       </c>
       <c r="I17" s="1" t="str">
-        <f>results!G9</f>
-        <v>0.95</v>
+        <f>results!G15</f>
+        <v>1.34</v>
       </c>
       <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="1"/>
       <c r="B18" s="1" t="str">
-        <f>results!A10</f>
-        <v>age_k3</v>
-      </c>
-      <c r="C18" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="D18" s="2" t="str">
-        <f>results!B10</f>
-        <v>0.62</v>
-      </c>
-      <c r="E18" s="1" t="str">
-        <f>results!C10</f>
-        <v>(0.50--0.76)</v>
-      </c>
-      <c r="F18" s="2" t="str">
-        <f>results!D10</f>
-        <v>&lt;0.001</v>
+        <f>results!A16</f>
+        <v>osupp2</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>293</v>
+      </c>
+      <c r="D18" s="9" t="str">
+        <f>results!B16</f>
+        <v>1.32</v>
+      </c>
+      <c r="E18" s="10" t="str">
+        <f>results!C16</f>
+        <v>(1.05--1.67)</v>
+      </c>
+      <c r="F18" s="9" t="str">
+        <f>results!D16</f>
+        <v>0.019</v>
       </c>
       <c r="G18" s="1" t="str">
-        <f>results!E10</f>
-        <v>***</v>
+        <f>results!E16</f>
+        <v>*</v>
       </c>
       <c r="H18" s="1" t="str">
-        <f>results!F10</f>
-        <v>0.50</v>
+        <f>results!F16</f>
+        <v>1.05</v>
       </c>
       <c r="I18" s="1" t="str">
-        <f>results!G10</f>
-        <v>0.76</v>
+        <f>results!G16</f>
+        <v>1.67</v>
       </c>
       <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="1"/>
       <c r="B19" s="1" t="str">
-        <f>results!A11</f>
-        <v>male</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="D19" s="9" t="str">
-        <f>results!B11</f>
-        <v>1.14</v>
-      </c>
-      <c r="E19" s="10" t="str">
-        <f>results!C11</f>
-        <v>(1.00--1.30)</v>
-      </c>
-      <c r="F19" s="9" t="str">
-        <f>results!D11</f>
-        <v>0.057</v>
+        <f>results!A17</f>
+        <v>icnarc_score</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="D19" s="2" t="str">
+        <f>results!B17</f>
+        <v>1.02</v>
+      </c>
+      <c r="E19" s="1" t="str">
+        <f>results!C17</f>
+        <v>(1.01--1.03)</v>
+      </c>
+      <c r="F19" s="2" t="str">
+        <f>results!D17</f>
+        <v>&lt;0.001</v>
       </c>
       <c r="G19" s="1" t="str">
-        <f>results!E11</f>
-        <v/>
+        <f>results!E17</f>
+        <v>***</v>
       </c>
       <c r="H19" s="1" t="str">
-        <f>results!F11</f>
-        <v>1.00</v>
+        <f>results!F17</f>
+        <v>1.01</v>
       </c>
       <c r="I19" s="1" t="str">
-        <f>results!G11</f>
-        <v>1.30</v>
+        <f>results!G17</f>
+        <v>1.03</v>
       </c>
       <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="D20" s="17"/>
-      <c r="E20" s="18"/>
-      <c r="F20" s="17"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1"/>
+      <c r="B20" s="1" t="str">
+        <f>results!A18</f>
+        <v>periarrest</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>295</v>
+      </c>
+      <c r="D20" s="21" t="str">
+        <f>results!B18</f>
+        <v>1.98</v>
+      </c>
+      <c r="E20" s="22" t="str">
+        <f>results!C18</f>
+        <v>(1.55--2.54)</v>
+      </c>
+      <c r="F20" s="21" t="str">
+        <f>results!D18</f>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="G20" s="1" t="str">
+        <f>results!E18</f>
+        <v>***</v>
+      </c>
+      <c r="H20" s="1" t="str">
+        <f>results!F18</f>
+        <v>1.55</v>
+      </c>
+      <c r="I20" s="1" t="str">
+        <f>results!G18</f>
+        <v>2.54</v>
+      </c>
       <c r="J20" s="1"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="19" t="s">
-        <v>288</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>298</v>
-      </c>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1"/>
-      <c r="J21" s="1"/>
+    <row r="21" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="18"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="1"/>
-      <c r="B22" s="1" t="str">
-        <f>results!A12</f>
-        <v>sepsis_dx1</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>289</v>
-      </c>
-      <c r="D22" s="17" t="str">
-        <f>results!B12</f>
-        <v>0.89</v>
-      </c>
-      <c r="E22" s="18" t="str">
-        <f>results!C12</f>
-        <v>(0.72--1.11)</v>
-      </c>
-      <c r="F22" s="17" t="str">
-        <f>results!D12</f>
-        <v>0.322</v>
-      </c>
-      <c r="G22" s="1" t="str">
-        <f>results!E12</f>
-        <v/>
-      </c>
-      <c r="H22" s="1" t="str">
-        <f>results!F12</f>
-        <v>0.72</v>
-      </c>
-      <c r="I22" s="1" t="str">
-        <f>results!G12</f>
-        <v>1.11</v>
-      </c>
+      <c r="B22" s="1"/>
+      <c r="C22" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
       <c r="J22" s="1"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="str">
-        <f>results!A13</f>
-        <v>sepsis_dx2</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>290</v>
-      </c>
-      <c r="D23" s="17" t="str">
-        <f>results!B13</f>
-        <v>1.08</v>
-      </c>
-      <c r="E23" s="18" t="str">
-        <f>results!C13</f>
-        <v>(0.82--1.43)</v>
-      </c>
-      <c r="F23" s="17" t="str">
-        <f>results!D13</f>
-        <v>0.595</v>
+        <f>results!A3</f>
+        <v>out_of_hours</v>
+      </c>
+      <c r="C23" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="D23" s="2" t="str">
+        <f>results!B3</f>
+        <v>1.79</v>
+      </c>
+      <c r="E23" s="1" t="str">
+        <f>results!C3</f>
+        <v>(1.56--2.07)</v>
+      </c>
+      <c r="F23" s="2" t="str">
+        <f>results!D3</f>
+        <v>&lt;0.001</v>
       </c>
       <c r="G23" s="1" t="str">
-        <f>results!E13</f>
-        <v/>
+        <f>results!E3</f>
+        <v>***</v>
       </c>
       <c r="H23" s="1" t="str">
-        <f>results!F13</f>
-        <v>0.82</v>
+        <f>results!F3</f>
+        <v>1.56</v>
       </c>
       <c r="I23" s="1" t="str">
-        <f>results!G13</f>
-        <v>1.43</v>
+        <f>results!G3</f>
+        <v>2.07</v>
       </c>
       <c r="J23" s="1"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="1"/>
       <c r="B24" s="1" t="str">
-        <f>results!A14</f>
-        <v>sepsis_dx3</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>291</v>
-      </c>
-      <c r="D24" s="17" t="str">
-        <f>results!B14</f>
-        <v>0.83</v>
-      </c>
-      <c r="E24" s="18" t="str">
-        <f>results!C14</f>
-        <v>(0.65--1.05)</v>
-      </c>
-      <c r="F24" s="17" t="str">
-        <f>results!D14</f>
-        <v>0.124</v>
+        <f>results!A4</f>
+        <v>weekend</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>275</v>
+      </c>
+      <c r="D24" s="9" t="str">
+        <f>results!B4</f>
+        <v>1.06</v>
+      </c>
+      <c r="E24" s="10" t="str">
+        <f>results!C4</f>
+        <v>(0.91--1.23)</v>
+      </c>
+      <c r="F24" s="9" t="str">
+        <f>results!D4</f>
+        <v>0.467</v>
       </c>
       <c r="G24" s="1" t="str">
-        <f>results!E14</f>
+        <f>results!E4</f>
         <v/>
       </c>
       <c r="H24" s="1" t="str">
-        <f>results!F14</f>
-        <v>0.65</v>
+        <f>results!F4</f>
+        <v>0.91</v>
       </c>
       <c r="I24" s="1" t="str">
-        <f>results!G14</f>
-        <v>1.05</v>
+        <f>results!G4</f>
+        <v>1.23</v>
       </c>
       <c r="J24" s="1"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="1"/>
       <c r="B25" s="1" t="str">
-        <f>results!A15</f>
-        <v>sepsis_dx4</v>
-      </c>
-      <c r="C25" s="19" t="s">
-        <v>292</v>
-      </c>
-      <c r="D25" s="17" t="str">
-        <f>results!B15</f>
-        <v>1.13</v>
-      </c>
-      <c r="E25" s="18" t="str">
-        <f>results!C15</f>
-        <v>(0.96--1.34)</v>
-      </c>
-      <c r="F25" s="17" t="str">
-        <f>results!D15</f>
-        <v>0.133</v>
+        <f>results!A5</f>
+        <v>winter</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="D25" s="2" t="str">
+        <f>results!B5</f>
+        <v>0.76</v>
+      </c>
+      <c r="E25" s="1" t="str">
+        <f>results!C5</f>
+        <v>(0.64--0.90)</v>
+      </c>
+      <c r="F25" s="2" t="str">
+        <f>results!D5</f>
+        <v>0.001</v>
       </c>
       <c r="G25" s="1" t="str">
-        <f>results!E15</f>
-        <v/>
+        <f>results!E5</f>
+        <v>**</v>
       </c>
       <c r="H25" s="1" t="str">
-        <f>results!F15</f>
-        <v>0.96</v>
+        <f>results!F5</f>
+        <v>0.64</v>
       </c>
       <c r="I25" s="1" t="str">
-        <f>results!G15</f>
-        <v>1.34</v>
+        <f>results!G5</f>
+        <v>0.90</v>
       </c>
       <c r="J25" s="1"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" s="1"/>
-      <c r="B26" s="1" t="str">
-        <f>results!A16</f>
-        <v>osupp2</v>
-      </c>
-      <c r="C26" s="13" t="s">
-        <v>293</v>
-      </c>
-      <c r="D26" s="9" t="str">
-        <f>results!B16</f>
-        <v>1.32</v>
-      </c>
-      <c r="E26" s="10" t="str">
-        <f>results!C16</f>
-        <v>(1.05--1.67)</v>
-      </c>
-      <c r="F26" s="9" t="str">
-        <f>results!D16</f>
-        <v>0.019</v>
-      </c>
-      <c r="G26" s="1" t="str">
-        <f>results!E16</f>
-        <v>*</v>
-      </c>
-      <c r="H26" s="1" t="str">
-        <f>results!F16</f>
-        <v>1.05</v>
-      </c>
-      <c r="I26" s="1" t="str">
-        <f>results!G16</f>
-        <v>1.67</v>
-      </c>
+      <c r="B26" s="1"/>
+      <c r="C26" s="8" t="s">
+        <v>277</v>
+      </c>
+      <c r="D26" s="9"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="9"/>
+      <c r="G26" s="1"/>
+      <c r="H26" s="1"/>
+      <c r="I26" s="1"/>
       <c r="J26" s="1"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" s="1"/>
-      <c r="B27" s="1" t="str">
-        <f>results!A17</f>
-        <v>icnarc_score</v>
-      </c>
-      <c r="C27" s="12" t="s">
-        <v>294</v>
-      </c>
-      <c r="D27" s="2" t="str">
-        <f>results!B17</f>
-        <v>1.02</v>
-      </c>
-      <c r="E27" s="1" t="str">
-        <f>results!C17</f>
-        <v>(1.01--1.03)</v>
-      </c>
-      <c r="F27" s="2" t="str">
-        <f>results!D17</f>
-        <v>&lt;0.001</v>
-      </c>
-      <c r="G27" s="1" t="str">
-        <f>results!E17</f>
-        <v>***</v>
-      </c>
-      <c r="H27" s="1" t="str">
-        <f>results!F17</f>
-        <v>1.01</v>
-      </c>
-      <c r="I27" s="1" t="str">
-        <f>results!G17</f>
-        <v>1.03</v>
-      </c>
+      <c r="B27" s="1"/>
+      <c r="C27" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>298</v>
+      </c>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
       <c r="J27" s="1"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" s="1"/>
       <c r="B28" s="1" t="str">
-        <f>results!A18</f>
-        <v>periarrest</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>295</v>
-      </c>
-      <c r="D28" s="21" t="str">
-        <f>results!B18</f>
-        <v>1.98</v>
-      </c>
-      <c r="E28" s="22" t="str">
-        <f>results!C18</f>
-        <v>(1.55--2.54)</v>
-      </c>
-      <c r="F28" s="21" t="str">
-        <f>results!D18</f>
+        <f>results!A6</f>
+        <v>room_cmp2[-5, 1)</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>279</v>
+      </c>
+      <c r="D28" s="9" t="str">
+        <f>results!B7</f>
+        <v>0.58</v>
+      </c>
+      <c r="E28" s="32" t="str">
+        <f>results!C7</f>
+        <v>(0.49--0.70)</v>
+      </c>
+      <c r="F28" s="9" t="str">
+        <f>results!D7</f>
         <v>&lt;0.001</v>
       </c>
       <c r="G28" s="1" t="str">
-        <f>results!E18</f>
+        <f>results!E6</f>
         <v>***</v>
       </c>
       <c r="H28" s="1" t="str">
-        <f>results!F18</f>
-        <v>1.55</v>
+        <f>results!F6</f>
+        <v>0.19</v>
       </c>
       <c r="I28" s="1" t="str">
-        <f>results!G18</f>
-        <v>2.54</v>
+        <f>results!G6</f>
+        <v>0.37</v>
       </c>
       <c r="J28" s="1"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" s="1"/>
       <c r="B29" s="1" t="str">
+        <f>results!A7</f>
+        <v>room_cmp2[ 1, 3)</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="D29" s="9" t="str">
+        <f>results!B6</f>
+        <v>0.27</v>
+      </c>
+      <c r="E29" s="32" t="str">
+        <f>results!C6</f>
+        <v>(0.19--0.37)</v>
+      </c>
+      <c r="F29" s="9" t="str">
+        <f>results!D6</f>
+        <v>&lt;0.001</v>
+      </c>
+      <c r="G29" s="1" t="str">
+        <f>results!E7</f>
+        <v>***</v>
+      </c>
+      <c r="H29" s="1" t="str">
+        <f>results!F7</f>
+        <v>0.49</v>
+      </c>
+      <c r="I29" s="1" t="str">
+        <f>results!G7</f>
+        <v>0.70</v>
+      </c>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:10" s="31" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="18"/>
+      <c r="B30" s="18"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="17"/>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="18"/>
+      <c r="H30" s="18"/>
+      <c r="I30" s="18"/>
+      <c r="J30" s="18"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1" t="str">
         <f>results!A19</f>
         <v>icu_accept</v>
       </c>
-      <c r="C29" s="23" t="s">
+      <c r="C31" s="23" t="s">
         <v>299</v>
       </c>
-      <c r="D29" s="24" t="str">
+      <c r="D31" s="24" t="str">
         <f>results!B19</f>
         <v>69.07</v>
       </c>
-      <c r="E29" s="25" t="str">
+      <c r="E31" s="25" t="str">
         <f>results!C19</f>
         <v>(58.75--81.21)</v>
       </c>
-      <c r="F29" s="24" t="str">
+      <c r="F31" s="24" t="str">
         <f>results!D19</f>
         <v>&lt;0.001</v>
       </c>
-      <c r="G29" s="1" t="str">
+      <c r="G31" s="1" t="str">
         <f>results!E19</f>
         <v>***</v>
       </c>
-      <c r="H29" s="1" t="str">
+      <c r="H31" s="1" t="str">
         <f>results!F19</f>
         <v>58.75</v>
       </c>
-      <c r="I29" s="1" t="str">
+      <c r="I31" s="1" t="str">
         <f>results!G19</f>
         <v>81.21</v>
       </c>
-      <c r="J29" s="1"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="1"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="25"/>
-      <c r="F30" s="24"/>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="1"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="D31" s="9"/>
-      <c r="E31" s="10"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" s="1"/>
       <c r="B32" s="1"/>
-      <c r="C32" s="14" t="s">
-        <v>297</v>
-      </c>
-      <c r="D32" s="15">
-        <f>VALUE(boot!B2)</f>
-        <v>1.88944150851315</v>
-      </c>
-      <c r="E32" s="14" t="str">
-        <f>CONCATENATE("(",ROUND(VALUE(boot!C2),2),"--",ROUND(VALUE(boot!D2),2),")")</f>
-        <v>(1.63--2.21)</v>
-      </c>
-      <c r="F32" s="14"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="25"/>
+      <c r="F32" s="24"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
@@ -2296,10 +2294,12 @@
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="1"/>
       <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="1"/>
-      <c r="F33" s="2"/>
+      <c r="C33" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="D33" s="9"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="9"/>
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -2308,10 +2308,18 @@
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="1"/>
       <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="2"/>
+      <c r="C34" s="14" t="s">
+        <v>297</v>
+      </c>
+      <c r="D34" s="15">
+        <f>VALUE(boot!B2)</f>
+        <v>1.88944150851315</v>
+      </c>
+      <c r="E34" s="14" t="str">
+        <f>CONCATENATE("(",ROUND(VALUE(boot!C2),2),"--",ROUND(VALUE(boot!D2),2),")")</f>
+        <v>(1.63--2.21)</v>
+      </c>
+      <c r="F34" s="14"/>
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -2341,12 +2349,36 @@
       <c r="I36" s="1"/>
       <c r="J36" s="1"/>
     </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="1"/>
+      <c r="H37" s="1"/>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="1"/>
+      <c r="H38" s="1"/>
+      <c r="I38" s="1"/>
+      <c r="J38" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="D5:E5"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D13:F13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
